--- a/biology/Zoologie/Fejervarya_iskandari/Fejervarya_iskandari.xlsx
+++ b/biology/Zoologie/Fejervarya_iskandari/Fejervarya_iskandari.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fejervarya iskandari est une espèce d'amphibiens de la famille des Dicroglossidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fejervarya iskandari est une espèce d'amphibiens de la famille des Dicroglossidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Java en Indonésie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Java en Indonésie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur de l'herpétologiste indonésien Djoko Tjahjono Iskandar.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Veith, Kosuch, Ohler &amp; Dubois, 2001 : Systematics of Fejervarya limnocharis (Gravenhorst, 1829) (Amphibia, Anura, Ranidae) and related species. 2. Morphological and molecular variation in frogs from the Greater Sunda Islands (Sumatra, Java, Borneo) with the definition of two species. Alytes, Paris, vol. 19, p. 5-28.</t>
         </is>
